--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_100ha_100ha_14%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_100ha_100ha_14%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -1777,28 +1777,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>440.9095728536184</v>
+        <v>482.5675096719418</v>
       </c>
       <c r="AB2" t="n">
-        <v>603.2719291358538</v>
+        <v>660.2701561091494</v>
       </c>
       <c r="AC2" t="n">
-        <v>545.6965029165975</v>
+        <v>597.2548991050759</v>
       </c>
       <c r="AD2" t="n">
-        <v>440909.5728536184</v>
+        <v>482567.5096719417</v>
       </c>
       <c r="AE2" t="n">
-        <v>603271.9291358539</v>
+        <v>660270.1561091495</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.56216820027723e-06</v>
+        <v>4.331472467621291e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.908333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>545696.5029165975</v>
+        <v>597254.8991050759</v>
       </c>
     </row>
     <row r="3">
@@ -1883,28 +1883,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>158.9147328243423</v>
+        <v>179.6584498874831</v>
       </c>
       <c r="AB3" t="n">
-        <v>217.4341482733803</v>
+        <v>245.8166171073643</v>
       </c>
       <c r="AC3" t="n">
-        <v>196.682538332975</v>
+        <v>222.3562241764977</v>
       </c>
       <c r="AD3" t="n">
-        <v>158914.7328243422</v>
+        <v>179658.4498874831</v>
       </c>
       <c r="AE3" t="n">
-        <v>217434.1482733803</v>
+        <v>245816.6171073643</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.678075936815462e-06</v>
+        <v>7.9085194795429e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.330555555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>196682.538332975</v>
+        <v>222356.2241764977</v>
       </c>
     </row>
     <row r="4">
@@ -1989,28 +1989,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>157.1442115806398</v>
+        <v>177.8879286437806</v>
       </c>
       <c r="AB4" t="n">
-        <v>215.0116429978633</v>
+        <v>243.3941118318472</v>
       </c>
       <c r="AC4" t="n">
-        <v>194.491233560945</v>
+        <v>220.1649194044678</v>
       </c>
       <c r="AD4" t="n">
-        <v>157144.2115806398</v>
+        <v>177887.9286437806</v>
       </c>
       <c r="AE4" t="n">
-        <v>215011.6429978633</v>
+        <v>243394.1118318472</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.721549496212069e-06</v>
+        <v>7.982013688695728e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.291666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>194491.233560945</v>
+        <v>220164.9194044677</v>
       </c>
     </row>
   </sheetData>
@@ -2286,28 +2286,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>270.1635323214373</v>
+        <v>300.349984506997</v>
       </c>
       <c r="AB2" t="n">
-        <v>369.6496636960526</v>
+        <v>410.9520993086171</v>
       </c>
       <c r="AC2" t="n">
-        <v>334.370818599462</v>
+        <v>371.7314077254957</v>
       </c>
       <c r="AD2" t="n">
-        <v>270163.5323214373</v>
+        <v>300349.984506997</v>
       </c>
       <c r="AE2" t="n">
-        <v>369649.6636960526</v>
+        <v>410952.0993086171</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.423364915697494e-06</v>
+        <v>5.928552576338041e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.122222222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>334370.818599462</v>
+        <v>371731.4077254958</v>
       </c>
     </row>
     <row r="3">
@@ -2392,28 +2392,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>151.9486900093524</v>
+        <v>172.0445743510518</v>
       </c>
       <c r="AB3" t="n">
-        <v>207.9029011737966</v>
+        <v>235.3989766979423</v>
       </c>
       <c r="AC3" t="n">
-        <v>188.0609400793832</v>
+        <v>212.9328287464975</v>
       </c>
       <c r="AD3" t="n">
-        <v>151948.6900093524</v>
+        <v>172044.5743510518</v>
       </c>
       <c r="AE3" t="n">
-        <v>207902.9011737966</v>
+        <v>235398.9766979423</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.730443188262119e-06</v>
+        <v>8.192138974841999e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.430555555555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>188060.9400793832</v>
+        <v>212932.8287464975</v>
       </c>
     </row>
   </sheetData>
@@ -2689,28 +2689,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>166.2991763266578</v>
+        <v>193.6452731648036</v>
       </c>
       <c r="AB2" t="n">
-        <v>227.5378696518985</v>
+        <v>264.954005770478</v>
       </c>
       <c r="AC2" t="n">
-        <v>205.8219747237926</v>
+        <v>239.6671673251037</v>
       </c>
       <c r="AD2" t="n">
-        <v>166299.1763266578</v>
+        <v>193645.2731648036</v>
       </c>
       <c r="AE2" t="n">
-        <v>227537.8696518985</v>
+        <v>264954.005770478</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.235081553424947e-06</v>
+        <v>8.013685645091734e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.522222222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>205821.9747237926</v>
+        <v>239667.1673251037</v>
       </c>
     </row>
   </sheetData>
@@ -2986,28 +2986,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>150.8169965547418</v>
+        <v>179.2215480370872</v>
       </c>
       <c r="AB2" t="n">
-        <v>206.3544682624076</v>
+        <v>245.2188287209036</v>
       </c>
       <c r="AC2" t="n">
-        <v>186.6602874318174</v>
+        <v>221.8154878746394</v>
       </c>
       <c r="AD2" t="n">
-        <v>150816.9965547418</v>
+        <v>179221.5480370872</v>
       </c>
       <c r="AE2" t="n">
-        <v>206354.4682624076</v>
+        <v>245218.8287209036</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.52698177007935e-06</v>
+        <v>8.24717763881426e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.943055555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>186660.2874318174</v>
+        <v>221815.4878746395</v>
       </c>
     </row>
     <row r="3">
@@ -3092,28 +3092,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>150.9732834021498</v>
+        <v>179.3778348844952</v>
       </c>
       <c r="AB3" t="n">
-        <v>206.5683068219202</v>
+        <v>245.4326672804162</v>
       </c>
       <c r="AC3" t="n">
-        <v>186.8537175393345</v>
+        <v>222.0089179821565</v>
       </c>
       <c r="AD3" t="n">
-        <v>150973.2834021498</v>
+        <v>179377.8348844952</v>
       </c>
       <c r="AE3" t="n">
-        <v>206568.3068219202</v>
+        <v>245432.6672804162</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.539869974406977e-06</v>
+        <v>8.270657148106258e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.929166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>186853.7175393345</v>
+        <v>222008.9179821565</v>
       </c>
     </row>
   </sheetData>
@@ -3389,28 +3389,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>187.259265065882</v>
+        <v>213.581963621063</v>
       </c>
       <c r="AB2" t="n">
-        <v>256.2163877587442</v>
+        <v>292.2322651974263</v>
       </c>
       <c r="AC2" t="n">
-        <v>231.763455313083</v>
+        <v>264.3420279576303</v>
       </c>
       <c r="AD2" t="n">
-        <v>187259.265065882</v>
+        <v>213581.963621063</v>
       </c>
       <c r="AE2" t="n">
-        <v>256216.3877587442</v>
+        <v>292232.2651974263</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.854033700908311e-06</v>
+        <v>7.552664282319443e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.302777777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>231763.455313083</v>
+        <v>264342.0279576302</v>
       </c>
     </row>
   </sheetData>
@@ -3686,28 +3686,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>303.6845349411445</v>
+        <v>334.2969952657644</v>
       </c>
       <c r="AB2" t="n">
-        <v>415.5145783226002</v>
+        <v>457.3998970651793</v>
       </c>
       <c r="AC2" t="n">
-        <v>375.858450145864</v>
+        <v>413.7462928540653</v>
       </c>
       <c r="AD2" t="n">
-        <v>303684.5349411445</v>
+        <v>334296.9952657644</v>
       </c>
       <c r="AE2" t="n">
-        <v>415514.5783226002</v>
+        <v>457399.8970651794</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.179340889311663e-06</v>
+        <v>5.469996251627202e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.533333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>375858.450145864</v>
+        <v>413746.2928540653</v>
       </c>
     </row>
     <row r="3">
@@ -3792,28 +3792,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>153.408867307643</v>
+        <v>173.6750289416543</v>
       </c>
       <c r="AB3" t="n">
-        <v>209.9007801717927</v>
+        <v>237.6298365993834</v>
       </c>
       <c r="AC3" t="n">
-        <v>189.868144309852</v>
+        <v>214.9507785099773</v>
       </c>
       <c r="AD3" t="n">
-        <v>153408.867307643</v>
+        <v>173675.0289416543</v>
       </c>
       <c r="AE3" t="n">
-        <v>209900.7801717928</v>
+        <v>237629.8365993834</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.725190331024212e-06</v>
+        <v>8.129601165392316e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.395833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>189868.144309852</v>
+        <v>214950.7785099773</v>
       </c>
     </row>
     <row r="4">
@@ -3898,28 +3898,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>153.9343605169464</v>
+        <v>174.2005221509578</v>
       </c>
       <c r="AB4" t="n">
-        <v>210.6197831638856</v>
+        <v>238.3488395914763</v>
       </c>
       <c r="AC4" t="n">
-        <v>190.5185266655068</v>
+        <v>215.6011608656321</v>
       </c>
       <c r="AD4" t="n">
-        <v>153934.3605169464</v>
+        <v>174200.5221509578</v>
       </c>
       <c r="AE4" t="n">
-        <v>210619.7831638856</v>
+        <v>238348.8395914763</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.725489450498228e-06</v>
+        <v>8.130115794826092e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.395833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>190518.5266655068</v>
+        <v>215601.1608656321</v>
       </c>
     </row>
   </sheetData>
@@ -4195,28 +4195,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>208.7464648770918</v>
+        <v>234.5989808344064</v>
       </c>
       <c r="AB2" t="n">
-        <v>285.6161224887795</v>
+        <v>320.9886753540688</v>
       </c>
       <c r="AC2" t="n">
-        <v>258.35732062328</v>
+        <v>290.3539666888071</v>
       </c>
       <c r="AD2" t="n">
-        <v>208746.4648770918</v>
+        <v>234598.9808344064</v>
       </c>
       <c r="AE2" t="n">
-        <v>285616.1224887795</v>
+        <v>320988.6753540688</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.547871716733236e-06</v>
+        <v>7.112277851816689e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.006944444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>258357.32062328</v>
+        <v>290353.9666888071</v>
       </c>
     </row>
   </sheetData>
@@ -4492,28 +4492,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>186.4935380035745</v>
+        <v>206.1221310007552</v>
       </c>
       <c r="AB2" t="n">
-        <v>255.1686862106018</v>
+        <v>282.0253931017381</v>
       </c>
       <c r="AC2" t="n">
-        <v>230.8157449302367</v>
+        <v>255.1092854093164</v>
       </c>
       <c r="AD2" t="n">
-        <v>186493.5380035745</v>
+        <v>206122.1310007552</v>
       </c>
       <c r="AE2" t="n">
-        <v>255168.6862106018</v>
+        <v>282025.3931017381</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.198530872677557e-06</v>
+        <v>7.435910155325117e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.143055555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>230815.7449302367</v>
+        <v>255109.2854093164</v>
       </c>
     </row>
     <row r="3">
@@ -4598,28 +4598,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>150.3308182705104</v>
+        <v>170.0446626137117</v>
       </c>
       <c r="AB3" t="n">
-        <v>205.6892576852504</v>
+        <v>232.662609229036</v>
       </c>
       <c r="AC3" t="n">
-        <v>186.058563618515</v>
+        <v>210.4576163483069</v>
       </c>
       <c r="AD3" t="n">
-        <v>150330.8182705104</v>
+        <v>170044.6626137117</v>
       </c>
       <c r="AE3" t="n">
-        <v>205689.2576852504</v>
+        <v>232662.6092290359</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.674795596142906e-06</v>
+        <v>8.27941037033737e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.619444444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>186058.563618515</v>
+        <v>210457.6163483069</v>
       </c>
     </row>
   </sheetData>
@@ -4895,28 +4895,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>231.950555480137</v>
+        <v>261.9571305616168</v>
       </c>
       <c r="AB2" t="n">
-        <v>317.3649829440788</v>
+        <v>358.4213027673722</v>
       </c>
       <c r="AC2" t="n">
-        <v>287.0761143965411</v>
+        <v>324.2140766787114</v>
       </c>
       <c r="AD2" t="n">
-        <v>231950.5554801369</v>
+        <v>261957.1305616168</v>
       </c>
       <c r="AE2" t="n">
-        <v>317364.9829440788</v>
+        <v>358421.3027673722</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.670693314372795e-06</v>
+        <v>6.401368618246502e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.763888888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>287076.1143965411</v>
+        <v>324214.0766787113</v>
       </c>
     </row>
     <row r="3">
@@ -5001,28 +5001,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>151.270423198326</v>
+        <v>171.1895552399565</v>
       </c>
       <c r="AB3" t="n">
-        <v>206.9748665999309</v>
+        <v>234.2291018293612</v>
       </c>
       <c r="AC3" t="n">
-        <v>187.2214758227422</v>
+        <v>211.8746050934438</v>
       </c>
       <c r="AD3" t="n">
-        <v>151270.423198326</v>
+        <v>171189.5552399565</v>
       </c>
       <c r="AE3" t="n">
-        <v>206974.8665999309</v>
+        <v>234229.1018293612</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.716568204518443e-06</v>
+        <v>8.225283101697245e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.486111111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>187221.4758227422</v>
+        <v>211874.6050934438</v>
       </c>
     </row>
   </sheetData>
@@ -5298,28 +5298,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>390.6857545303981</v>
+        <v>431.8648636252033</v>
       </c>
       <c r="AB2" t="n">
-        <v>534.553485187537</v>
+        <v>590.896558945127</v>
       </c>
       <c r="AC2" t="n">
-        <v>483.5364508117663</v>
+        <v>534.5022206879324</v>
       </c>
       <c r="AD2" t="n">
-        <v>390685.7545303981</v>
+        <v>431864.8636252033</v>
       </c>
       <c r="AE2" t="n">
-        <v>534553.485187537</v>
+        <v>590896.5589451271</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.76381664445077e-06</v>
+        <v>4.698305119807546e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.390277777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>483536.4508117663</v>
+        <v>534502.2206879325</v>
       </c>
     </row>
     <row r="3">
@@ -5404,28 +5404,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>155.8444413102006</v>
+        <v>176.4340406118784</v>
       </c>
       <c r="AB3" t="n">
-        <v>213.2332399720319</v>
+        <v>241.4048380855866</v>
       </c>
       <c r="AC3" t="n">
-        <v>192.882558823894</v>
+        <v>218.3654991525863</v>
       </c>
       <c r="AD3" t="n">
-        <v>155844.4413102005</v>
+        <v>176434.0406118784</v>
       </c>
       <c r="AE3" t="n">
-        <v>213233.2399720319</v>
+        <v>241404.8380855866</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.720913517076217e-06</v>
+        <v>8.025240093977199e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.326388888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>192882.558823894</v>
+        <v>218365.4991525863</v>
       </c>
     </row>
     <row r="4">
@@ -5510,28 +5510,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>155.8926429759225</v>
+        <v>176.4822422776003</v>
       </c>
       <c r="AB4" t="n">
-        <v>213.29919161758</v>
+        <v>241.4707897311347</v>
       </c>
       <c r="AC4" t="n">
-        <v>192.9422161369548</v>
+        <v>218.425156465647</v>
       </c>
       <c r="AD4" t="n">
-        <v>155892.6429759225</v>
+        <v>176482.2422776003</v>
       </c>
       <c r="AE4" t="n">
-        <v>213299.19161758</v>
+        <v>241470.7897311347</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.732383466438663e-06</v>
+        <v>8.044738247706649e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.315277777777777</v>
       </c>
       <c r="AH4" t="n">
-        <v>192942.2161369548</v>
+        <v>218425.156465647</v>
       </c>
     </row>
   </sheetData>
@@ -5807,28 +5807,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>153.5120812252678</v>
+        <v>182.2511794541578</v>
       </c>
       <c r="AB2" t="n">
-        <v>210.0420020073636</v>
+        <v>249.3641040836425</v>
       </c>
       <c r="AC2" t="n">
-        <v>189.9958881316421</v>
+        <v>225.5651439746904</v>
       </c>
       <c r="AD2" t="n">
-        <v>153512.0812252678</v>
+        <v>182251.1794541578</v>
       </c>
       <c r="AE2" t="n">
-        <v>210042.0020073636</v>
+        <v>249364.1040836425</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.522027817058422e-06</v>
+        <v>8.1542862465588e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.886111111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>189995.8881316421</v>
+        <v>225565.1439746904</v>
       </c>
     </row>
     <row r="3">
@@ -5913,28 +5913,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>150.7141226249188</v>
+        <v>179.4532208538087</v>
       </c>
       <c r="AB3" t="n">
-        <v>206.2137116131463</v>
+        <v>245.5358136894252</v>
       </c>
       <c r="AC3" t="n">
-        <v>186.5329643996083</v>
+        <v>222.1022202426566</v>
       </c>
       <c r="AD3" t="n">
-        <v>150714.1226249188</v>
+        <v>179453.2208538087</v>
       </c>
       <c r="AE3" t="n">
-        <v>206213.7116131463</v>
+        <v>245535.8136894252</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.591071267281935e-06</v>
+        <v>8.278787925749883e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.8125</v>
       </c>
       <c r="AH3" t="n">
-        <v>186532.9643996083</v>
+        <v>222102.2202426566</v>
       </c>
     </row>
   </sheetData>
@@ -6210,28 +6210,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>162.7786509454851</v>
+        <v>181.2821814529884</v>
       </c>
       <c r="AB2" t="n">
-        <v>222.720931510762</v>
+        <v>248.0382782692685</v>
       </c>
       <c r="AC2" t="n">
-        <v>201.4647583982295</v>
+        <v>224.3658531152315</v>
       </c>
       <c r="AD2" t="n">
-        <v>162778.650945485</v>
+        <v>181282.1814529884</v>
       </c>
       <c r="AE2" t="n">
-        <v>222720.931510762</v>
+        <v>248038.2782692685</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.369909295736177e-06</v>
+        <v>8.152853936072086e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.266666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>201464.7583982295</v>
+        <v>224365.8531152315</v>
       </c>
     </row>
   </sheetData>
@@ -10192,28 +10192,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>170.5210154492575</v>
+        <v>197.4214833887353</v>
       </c>
       <c r="AB2" t="n">
-        <v>233.3143761938334</v>
+        <v>270.1207831934962</v>
       </c>
       <c r="AC2" t="n">
-        <v>211.0471795887449</v>
+        <v>244.3408347624883</v>
       </c>
       <c r="AD2" t="n">
-        <v>170521.0154492575</v>
+        <v>197421.4833887353</v>
       </c>
       <c r="AE2" t="n">
-        <v>233314.3761938334</v>
+        <v>270120.7831934962</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.078022759103139e-06</v>
+        <v>7.842188993551756e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.838888888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>211047.1795887449</v>
+        <v>244340.8347624883</v>
       </c>
     </row>
   </sheetData>
@@ -10489,28 +10489,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>240.9617602231007</v>
+        <v>274.4847758774936</v>
       </c>
       <c r="AB2" t="n">
-        <v>329.6945108196914</v>
+        <v>375.56217976926</v>
       </c>
       <c r="AC2" t="n">
-        <v>298.2289294363103</v>
+        <v>339.7190524369109</v>
       </c>
       <c r="AD2" t="n">
-        <v>240961.7602231007</v>
+        <v>274484.7758774936</v>
       </c>
       <c r="AE2" t="n">
-        <v>329694.5108196914</v>
+        <v>375562.17976926</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.105768455578884e-06</v>
+        <v>6.405955908786819e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.227777777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>298228.9294363103</v>
+        <v>339719.0524369109</v>
       </c>
     </row>
   </sheetData>
@@ -10786,28 +10786,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>206.9521660290992</v>
+        <v>236.5122517390687</v>
       </c>
       <c r="AB2" t="n">
-        <v>283.1610836460789</v>
+        <v>323.6064970133817</v>
       </c>
       <c r="AC2" t="n">
-        <v>256.1365872420573</v>
+        <v>292.7219471230918</v>
       </c>
       <c r="AD2" t="n">
-        <v>206952.1660290992</v>
+        <v>236512.2517390687</v>
       </c>
       <c r="AE2" t="n">
-        <v>283161.0836460788</v>
+        <v>323606.4970133817</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.937988124790312e-06</v>
+        <v>6.918889790384215e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.426388888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>256136.5872420573</v>
+        <v>292721.9471230918</v>
       </c>
     </row>
     <row r="3">
@@ -10892,28 +10892,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>150.7144704877682</v>
+        <v>170.6202632827144</v>
       </c>
       <c r="AB3" t="n">
-        <v>206.2141875744436</v>
+        <v>233.4501714580744</v>
       </c>
       <c r="AC3" t="n">
-        <v>186.5333949358274</v>
+        <v>211.1700147435567</v>
       </c>
       <c r="AD3" t="n">
-        <v>150714.4704877682</v>
+        <v>170620.2632827144</v>
       </c>
       <c r="AE3" t="n">
-        <v>206214.1875744436</v>
+        <v>233450.1714580744</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.694719480931396e-06</v>
+        <v>8.248436931755275e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.55138888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>186533.3949358274</v>
+        <v>211170.0147435567</v>
       </c>
     </row>
   </sheetData>
@@ -11189,28 +11189,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>339.0419142486097</v>
+        <v>379.9882004837003</v>
       </c>
       <c r="AB2" t="n">
-        <v>463.89210454856</v>
+        <v>519.9166197980686</v>
       </c>
       <c r="AC2" t="n">
-        <v>419.6188931671026</v>
+        <v>470.2965073120991</v>
       </c>
       <c r="AD2" t="n">
-        <v>339041.9142486097</v>
+        <v>379988.2004837003</v>
       </c>
       <c r="AE2" t="n">
-        <v>463892.10454856</v>
+        <v>519916.6197980687</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.967996112623135e-06</v>
+        <v>5.074942591988871e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.938888888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>419618.8931671025</v>
+        <v>470296.5073120991</v>
       </c>
     </row>
     <row r="3">
@@ -11295,28 +11295,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>154.3638684166273</v>
+        <v>174.7944306154376</v>
       </c>
       <c r="AB3" t="n">
-        <v>211.2074548207798</v>
+        <v>239.1614513539693</v>
       </c>
       <c r="AC3" t="n">
-        <v>191.0501117642696</v>
+        <v>216.3362181020209</v>
       </c>
       <c r="AD3" t="n">
-        <v>154363.8684166273</v>
+        <v>174794.4306154376</v>
       </c>
       <c r="AE3" t="n">
-        <v>211207.4548207798</v>
+        <v>239161.4513539693</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.725336869320412e-06</v>
+        <v>8.079799443677541e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.358333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>191050.1117642696</v>
+        <v>216336.2181020209</v>
       </c>
     </row>
   </sheetData>
@@ -11592,28 +11592,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>306.6802784580274</v>
+        <v>355.4225084039393</v>
       </c>
       <c r="AB2" t="n">
-        <v>419.6134867652758</v>
+        <v>486.3047561326932</v>
       </c>
       <c r="AC2" t="n">
-        <v>379.5661645196246</v>
+        <v>439.8925127404002</v>
       </c>
       <c r="AD2" t="n">
-        <v>306680.2784580274</v>
+        <v>355422.5084039393</v>
       </c>
       <c r="AE2" t="n">
-        <v>419613.4867652758</v>
+        <v>486304.7561326931</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.449936698189361e-06</v>
+        <v>5.251342761694068e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.8</v>
       </c>
       <c r="AH2" t="n">
-        <v>379566.1645196246</v>
+        <v>439892.5127404002</v>
       </c>
     </row>
   </sheetData>
@@ -11889,28 +11889,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>161.099776040706</v>
+        <v>179.8563534994156</v>
       </c>
       <c r="AB2" t="n">
-        <v>220.4238207993111</v>
+        <v>246.0873975601014</v>
       </c>
       <c r="AC2" t="n">
-        <v>199.3868807090637</v>
+        <v>222.6011617228685</v>
       </c>
       <c r="AD2" t="n">
-        <v>161099.7760407061</v>
+        <v>179856.3534994156</v>
       </c>
       <c r="AE2" t="n">
-        <v>220423.8207993111</v>
+        <v>246087.3975601014</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.464778318769663e-06</v>
+        <v>8.226052836528285e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.079166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>199386.8807090637</v>
+        <v>222601.1617228685</v>
       </c>
     </row>
     <row r="3">
@@ -11995,28 +11995,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>161.857116119623</v>
+        <v>180.6136935783325</v>
       </c>
       <c r="AB3" t="n">
-        <v>221.4600469067709</v>
+        <v>247.1236236675613</v>
       </c>
       <c r="AC3" t="n">
-        <v>200.3242108511803</v>
+        <v>223.5384918649852</v>
       </c>
       <c r="AD3" t="n">
-        <v>161857.116119623</v>
+        <v>180613.6935783325</v>
       </c>
       <c r="AE3" t="n">
-        <v>221460.0469067709</v>
+        <v>247123.6236675613</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.464941618514323e-06</v>
+        <v>8.226353705290821e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.079166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>200324.2108511803</v>
+        <v>223538.4918649852</v>
       </c>
     </row>
   </sheetData>
@@ -12292,28 +12292,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>160.8937464548383</v>
+        <v>189.9496983229734</v>
       </c>
       <c r="AB2" t="n">
-        <v>220.1419220305432</v>
+        <v>259.8975572346331</v>
       </c>
       <c r="AC2" t="n">
-        <v>199.1318859631394</v>
+        <v>235.0932991407481</v>
       </c>
       <c r="AD2" t="n">
-        <v>160893.7464548383</v>
+        <v>189949.6983229734</v>
       </c>
       <c r="AE2" t="n">
-        <v>220141.9220305432</v>
+        <v>259897.5572346331</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.424402642245227e-06</v>
+        <v>7.903872435073697e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.934722222222223</v>
       </c>
       <c r="AH2" t="n">
-        <v>199131.8859631394</v>
+        <v>235093.2991407481</v>
       </c>
     </row>
     <row r="3">
@@ -12398,28 +12398,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>150.1953038657356</v>
+        <v>179.2512557338707</v>
       </c>
       <c r="AB3" t="n">
-        <v>205.503840898164</v>
+        <v>245.2594761022539</v>
       </c>
       <c r="AC3" t="n">
-        <v>185.890842749354</v>
+        <v>221.8522559269626</v>
       </c>
       <c r="AD3" t="n">
-        <v>150195.3038657356</v>
+        <v>179251.2557338707</v>
       </c>
       <c r="AE3" t="n">
-        <v>205503.840898164</v>
+        <v>245259.4761022539</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.639797675111008e-06</v>
+        <v>8.288659942129274e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.706944444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>185890.842749354</v>
+        <v>221852.2559269626</v>
       </c>
     </row>
   </sheetData>
